--- a/Test_Suite/import_export.xlsx
+++ b/Test_Suite/import_export.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\WorkSpace3\HPEasyShell\Test_Suite\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B3F819D-965A-49DD-8414-9F3BEFFAF8A5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74C2906D-91F8-4D3A-8374-E4D46B1F4F59}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="29016" windowHeight="15816" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -446,7 +446,7 @@
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="B8" sqref="B8:B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
